--- a/ExcelExport/AllAverage_NoFeedback.xlsx
+++ b/ExcelExport/AllAverage_NoFeedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,26 @@
           <t>Free Lies Sec.</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t># Trues</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t># Lies</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t># Free Trues</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t># Free Lies</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,16 +495,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.007838893171869128</v>
+        <v>-0.004437189831679411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01535630941300912</v>
+        <v>0.02299373317706012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06679828740405974</v>
+        <v>-0.06613424996903801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2995916483184927</v>
+        <v>0.3029103918259874</v>
       </c>
       <c r="G2" t="n">
         <v>3.13941765</v>
@@ -498,6 +518,18 @@
       <c r="J2" t="n">
         <v>3.71352574</v>
       </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,16 +538,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07062937262069199</v>
+        <v>0.07131783438690296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2074604180559683</v>
+        <v>0.2115532210345591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1797021407501092</v>
+        <v>0.1808831915209701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3314624189169665</v>
+        <v>0.3346244591273617</v>
       </c>
       <c r="G3" t="n">
         <v>2.08138537</v>
@@ -529,6 +561,18 @@
       <c r="J3" t="n">
         <v>2.076479625</v>
       </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,16 +581,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04653067731257141</v>
+        <v>0.05132054888923256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1218349854680787</v>
+        <v>0.1252435173475803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06739668740657082</v>
+        <v>0.06879226967998119</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06334134188059291</v>
+        <v>0.06545622830155645</v>
       </c>
       <c r="G4" t="n">
         <v>2.90211006</v>
@@ -560,6 +604,18 @@
       <c r="J4" t="n">
         <v>1.739976633333333</v>
       </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,16 +624,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0902889983465691</v>
+        <v>0.09297739260454012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09237015003633553</v>
+        <v>0.09398408669746022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1870426291240819</v>
+        <v>0.1890543048185399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1257533442976232</v>
+        <v>0.1278388216354423</v>
       </c>
       <c r="G5" t="n">
         <v>1.76969927</v>
@@ -591,6 +647,18 @@
       <c r="J5" t="n">
         <v>1.1731865</v>
       </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -599,16 +667,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01967431181681379</v>
+        <v>0.03163118128903945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05506966972986145</v>
+        <v>0.06416040239489204</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08546897297782952</v>
+        <v>-0.07645561044125863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.434594081534417</v>
+        <v>0.4448721071128528</v>
       </c>
       <c r="G6" t="n">
         <v>2.7879094</v>
@@ -622,6 +690,18 @@
       <c r="J6" t="n">
         <v>2.61969315</v>
       </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -630,16 +710,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02491146826087173</v>
+        <v>0.02289665162826979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0124896589905706</v>
+        <v>0.0133281172387174</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08131853654454042</v>
+        <v>-0.08447893040476111</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03075623156974281</v>
+        <v>-0.03160041706262119</v>
       </c>
       <c r="G7" t="n">
         <v>2.79279082</v>
@@ -653,6 +733,18 @@
       <c r="J7" t="n">
         <v>2.78933848</v>
       </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -661,16 +753,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0275366888810183</v>
+        <v>0.038785642735707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03813716306798589</v>
+        <v>0.04445119976840146</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1085435389469911</v>
+        <v>0.1171981422083953</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1446865479023755</v>
+        <v>0.1469600724073327</v>
       </c>
       <c r="G8" t="n">
         <v>1.72555914</v>
@@ -684,6 +776,18 @@
       <c r="J8" t="n">
         <v>3.61353568</v>
       </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,16 +796,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1024061220966666</v>
+        <v>-0.09819353108258738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01968289895746884</v>
+        <v>0.02499206280762632</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02857071659783603</v>
+        <v>-0.02460287404221257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3184009284881876</v>
+        <v>0.3216824994606119</v>
       </c>
       <c r="G9" t="n">
         <v>4.80337742</v>
@@ -715,6 +819,18 @@
       <c r="J9" t="n">
         <v>3.270023816666667</v>
       </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -723,16 +839,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0621065784348122</v>
+        <v>-0.06055602176043064</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01064582490019924</v>
+        <v>-0.009247785052662938</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01463309171382791</v>
+        <v>-0.01194396670798892</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1424444703463031</v>
+        <v>-0.1409664951635983</v>
       </c>
       <c r="G10" t="n">
         <v>2.14569107</v>
@@ -746,6 +862,18 @@
       <c r="J10" t="n">
         <v>4.22070955</v>
       </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -754,16 +882,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07020232249021623</v>
+        <v>-0.06921380253738896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04273916385168399</v>
+        <v>0.04230555667994802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0121274398867415</v>
+        <v>0.01093105246667627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1932543995717755</v>
+        <v>0.1928504054064898</v>
       </c>
       <c r="G11" t="n">
         <v>2.54607916</v>
@@ -777,6 +905,18 @@
       <c r="J11" t="n">
         <v>3.717797666666666</v>
       </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -785,16 +925,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05280990437800529</v>
+        <v>-0.05279271613613119</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06297876967825003</v>
+        <v>0.06329110125964479</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008247223821736881</v>
+        <v>-0.002728613638321227</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03474781574835268</v>
+        <v>-0.03326235607924657</v>
       </c>
       <c r="G12" t="n">
         <v>2.31901727</v>
@@ -808,6 +948,18 @@
       <c r="J12" t="n">
         <v>7.309348783333333</v>
       </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -816,16 +968,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03687342028475012</v>
+        <v>0.05703809303744476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02370772624978745</v>
+        <v>0.04338302851910183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01207042069209292</v>
+        <v>0.02673060436964233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08021909909597016</v>
+        <v>0.08146840787291081</v>
       </c>
       <c r="G13" t="n">
         <v>3.29994387</v>
@@ -839,6 +991,18 @@
       <c r="J13" t="n">
         <v>3.6195893</v>
       </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -847,13 +1011,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0007377849592814331</v>
+        <v>-0.001109839131452537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06814336828666966</v>
+        <v>0.06724753612386074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009288402658555938</v>
+        <v>-0.001778554280335623</v>
       </c>
       <c r="G14" t="n">
         <v>2.1525735</v>
@@ -864,6 +1028,15 @@
       <c r="I14" t="n">
         <v>2.794616875</v>
       </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -872,13 +1045,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02106517385221709</v>
+        <v>-0.02057967995949258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03627011703360354</v>
+        <v>0.03826366607749112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1300101892038009</v>
+        <v>0.1312053355569685</v>
       </c>
       <c r="G15" t="n">
         <v>7.186385140000001</v>
@@ -889,6 +1062,15 @@
       <c r="I15" t="n">
         <v>6.77324065</v>
       </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -897,13 +1079,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01655183715192095</v>
+        <v>-0.01486116664906464</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04918729081014399</v>
+        <v>-0.04842447825644701</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03589457408826142</v>
+        <v>-0.03372928992386046</v>
       </c>
       <c r="G16" t="n">
         <v>2.92040473</v>
@@ -914,6 +1096,15 @@
       <c r="I16" t="n">
         <v>3.306327155555556</v>
       </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -922,13 +1113,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001360170553387234</v>
+        <v>0.007007568515757691</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07386004124622729</v>
+        <v>-0.07161049967277082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1966434868397199</v>
+        <v>0.1996698232503697</v>
       </c>
       <c r="G17" t="n">
         <v>3.8449215</v>
@@ -938,6 +1129,15 @@
       </c>
       <c r="I17" t="n">
         <v>3.50691845</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExport/AllAverage_NoFeedback.xlsx
+++ b/ExcelExport/AllAverage_NoFeedback.xlsx
@@ -749,7 +749,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M24_18</t>
+          <t>F27_19</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,9 +761,6 @@
       <c r="D8" t="n">
         <v>0.1171981422083953</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.1469600724073327</v>
-      </c>
       <c r="G8" t="n">
         <v>1.72555914</v>
       </c>
@@ -773,9 +770,6 @@
       <c r="I8" t="n">
         <v>1.99895945</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.61353568</v>
-      </c>
       <c r="L8" t="n">
         <v>10</v>
       </c>
@@ -784,15 +778,12 @@
       </c>
       <c r="N8" t="n">
         <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M26_10</t>
+          <t>F29_14</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -804,9 +795,6 @@
       <c r="D9" t="n">
         <v>-0.02460287404221257</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.3216824994606119</v>
-      </c>
       <c r="G9" t="n">
         <v>4.80337742</v>
       </c>
@@ -816,9 +804,6 @@
       <c r="I9" t="n">
         <v>4.54846342</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.270023816666667</v>
-      </c>
       <c r="L9" t="n">
         <v>10</v>
       </c>
@@ -827,15 +812,12 @@
       </c>
       <c r="N9" t="n">
         <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M26_12</t>
+          <t>M24_18</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -848,7 +830,7 @@
         <v>-0.01194396670798892</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1409664951635983</v>
+        <v>0.1469600724073327</v>
       </c>
       <c r="G10" t="n">
         <v>2.14569107</v>
@@ -860,7 +842,7 @@
         <v>2.30230652</v>
       </c>
       <c r="J10" t="n">
-        <v>4.22070955</v>
+        <v>3.61353568</v>
       </c>
       <c r="L10" t="n">
         <v>10</v>
@@ -872,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M26_17</t>
+          <t>M25_5</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -890,9 +872,6 @@
       <c r="D11" t="n">
         <v>0.01093105246667627</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.1928504054064898</v>
-      </c>
       <c r="G11" t="n">
         <v>2.54607916</v>
       </c>
@@ -902,9 +881,6 @@
       <c r="I11" t="n">
         <v>2.58964654</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.717797666666666</v>
-      </c>
       <c r="L11" t="n">
         <v>10</v>
       </c>
@@ -913,15 +889,12 @@
       </c>
       <c r="N11" t="n">
         <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M28_7</t>
+          <t>M26_10</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -934,7 +907,7 @@
         <v>-0.002728613638321227</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03326235607924657</v>
+        <v>0.3216824994606119</v>
       </c>
       <c r="G12" t="n">
         <v>2.31901727</v>
@@ -946,7 +919,7 @@
         <v>3.086459275</v>
       </c>
       <c r="J12" t="n">
-        <v>7.309348783333333</v>
+        <v>3.270023816666667</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -964,7 +937,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M31_6</t>
+          <t>M26_12</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -977,7 +950,7 @@
         <v>0.02673060436964233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08146840787291081</v>
+        <v>-0.1409664951635983</v>
       </c>
       <c r="G13" t="n">
         <v>3.29994387</v>
@@ -989,7 +962,7 @@
         <v>4.31018295</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6195893</v>
+        <v>4.22070955</v>
       </c>
       <c r="L13" t="n">
         <v>10</v>
@@ -1019,6 +992,9 @@
       <c r="D14" t="n">
         <v>-0.001778554280335623</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.1928504054064898</v>
+      </c>
       <c r="G14" t="n">
         <v>2.1525735</v>
       </c>
@@ -1028,6 +1004,9 @@
       <c r="I14" t="n">
         <v>2.794616875</v>
       </c>
+      <c r="J14" t="n">
+        <v>3.717797666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>10</v>
       </c>
@@ -1037,6 +1016,9 @@
       <c r="N14" t="n">
         <v>4</v>
       </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1053,6 +1035,9 @@
       <c r="D15" t="n">
         <v>0.1312053355569685</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.03326235607924657</v>
+      </c>
       <c r="G15" t="n">
         <v>7.186385140000001</v>
       </c>
@@ -1062,6 +1047,9 @@
       <c r="I15" t="n">
         <v>6.77324065</v>
       </c>
+      <c r="J15" t="n">
+        <v>7.309348783333333</v>
+      </c>
       <c r="L15" t="n">
         <v>10</v>
       </c>
@@ -1071,6 +1059,9 @@
       <c r="N15" t="n">
         <v>4</v>
       </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1121,6 +1112,9 @@
       <c r="D17" t="n">
         <v>0.1996698232503697</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.08146840787291081</v>
+      </c>
       <c r="G17" t="n">
         <v>3.8449215</v>
       </c>
@@ -1130,6 +1124,9 @@
       <c r="I17" t="n">
         <v>3.50691845</v>
       </c>
+      <c r="J17" t="n">
+        <v>3.6195893</v>
+      </c>
       <c r="L17" t="n">
         <v>10</v>
       </c>
@@ -1138,6 +1135,9 @@
       </c>
       <c r="N17" t="n">
         <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExport/AllAverage_NoFeedback.xlsx
+++ b/ExcelExport/AllAverage_NoFeedback.xlsx
@@ -504,7 +504,7 @@
         <v>-0.06613424996903801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3029103918259874</v>
+        <v>0.2669761724656358</v>
       </c>
       <c r="G2" t="n">
         <v>3.13941765</v>
@@ -544,7 +544,7 @@
         <v>0.2115532210345591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1808831915209701</v>
+        <v>0.2742256193751548</v>
       </c>
       <c r="E3" t="n">
         <v>0.3346244591273617</v>
@@ -587,7 +587,7 @@
         <v>0.1252435173475803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06879226967998119</v>
+        <v>0.07986629951164044</v>
       </c>
       <c r="E4" t="n">
         <v>0.06545622830155645</v>
@@ -630,7 +630,7 @@
         <v>0.09398408669746022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1890543048185399</v>
+        <v>0.1256166703958743</v>
       </c>
       <c r="E5" t="n">
         <v>0.1278388216354423</v>
@@ -676,7 +676,7 @@
         <v>-0.07645561044125863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4448721071128528</v>
+        <v>0.2844508345524505</v>
       </c>
       <c r="G6" t="n">
         <v>2.7879094</v>
@@ -719,7 +719,7 @@
         <v>-0.08447893040476111</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03160041706262119</v>
+        <v>0.1226409328994014</v>
       </c>
       <c r="G7" t="n">
         <v>2.79279082</v>
@@ -759,7 +759,7 @@
         <v>0.04445119976840146</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1171981422083953</v>
+        <v>-0.001137573191452787</v>
       </c>
       <c r="G8" t="n">
         <v>1.72555914</v>
@@ -793,7 +793,7 @@
         <v>0.02499206280762632</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02460287404221257</v>
+        <v>0.0266980013036533</v>
       </c>
       <c r="G9" t="n">
         <v>4.80337742</v>
@@ -830,7 +830,7 @@
         <v>-0.01194396670798892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1469600724073327</v>
+        <v>0.1897646632683353</v>
       </c>
       <c r="G10" t="n">
         <v>2.14569107</v>
@@ -870,7 +870,7 @@
         <v>0.04230555667994802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01093105246667627</v>
+        <v>0.05823102669627696</v>
       </c>
       <c r="G11" t="n">
         <v>2.54607916</v>
@@ -907,7 +907,7 @@
         <v>-0.002728613638321227</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3216824994606119</v>
+        <v>0.2137828053710756</v>
       </c>
       <c r="G12" t="n">
         <v>2.31901727</v>
@@ -947,7 +947,7 @@
         <v>0.04338302851910183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02673060436964233</v>
+        <v>0.03691155983262792</v>
       </c>
       <c r="E13" t="n">
         <v>-0.1409664951635983</v>
@@ -990,7 +990,7 @@
         <v>0.06724753612386074</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001778554280335623</v>
+        <v>0.09125660324123014</v>
       </c>
       <c r="E14" t="n">
         <v>0.1928504054064898</v>
@@ -1033,7 +1033,7 @@
         <v>0.03826366607749112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1312053355569685</v>
+        <v>0.1439017924661482</v>
       </c>
       <c r="E15" t="n">
         <v>-0.03326235607924657</v>
@@ -1076,7 +1076,7 @@
         <v>-0.04842447825644701</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03372928992386046</v>
+        <v>-0.02335708567310092</v>
       </c>
       <c r="G16" t="n">
         <v>2.92040473</v>
@@ -1110,7 +1110,7 @@
         <v>-0.07161049967277082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1996698232503697</v>
+        <v>0.1098382484924759</v>
       </c>
       <c r="E17" t="n">
         <v>0.08146840787291081</v>
